--- a/static/questions.xlsx
+++ b/static/questions.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mick4\Documents\Python Scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mick4\Documents\Personal Projects\hirehax\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F5B884-B83A-427F-8037-F42C367CDF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F22336A-2DA5-4EB6-9FEF-69666EBBEFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">questions!$A$1:$E$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">questions!$A$1:$E$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="198">
   <si>
     <t>q_code</t>
   </si>
@@ -119,9 +119,6 @@
     <t>A008</t>
   </si>
   <si>
-    <t>What extracurricular activities are you participating in?</t>
-  </si>
-  <si>
     <t>Tell us a time when you made a mistake.</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>C006</t>
   </si>
   <si>
-    <t>Tell us a time you persuaded someone to change an opinion</t>
-  </si>
-  <si>
     <t>C007</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
     <t>B003</t>
   </si>
   <si>
-    <t>What made you choose the degree that you are studying right now?</t>
-  </si>
-  <si>
     <t>C011</t>
   </si>
   <si>
@@ -185,12 +176,6 @@
     <t>C014</t>
   </si>
   <si>
-    <t>B004</t>
-  </si>
-  <si>
-    <t>What made you choose your university?</t>
-  </si>
-  <si>
     <t>B005</t>
   </si>
   <si>
@@ -419,9 +404,6 @@
     <t>A010</t>
   </si>
   <si>
-    <t>Could you give me an insight into what specifically you study and the skills you have learnt?</t>
-  </si>
-  <si>
     <t>C020</t>
   </si>
   <si>
@@ -497,18 +479,9 @@
     <t>What do you hope to learn and gain from the role?</t>
   </si>
   <si>
-    <t>A011</t>
-  </si>
-  <si>
     <t>Could you tell me a bit more about an interesting role you've been a part of recently?</t>
   </si>
   <si>
-    <t>A012</t>
-  </si>
-  <si>
-    <t>What are some of your hobbies?</t>
-  </si>
-  <si>
     <t>You have been leading an internal work stream that looks to improve ways of working within your team. You hold most of the knowledge as you are the only one in the team who has consistently been working within this area from the beginning. Just before you are about to start the implementation, your manager lets you know that you're being taken off this work stream with immediate effect. She explains that you are needed to help out on another project which is short of resource and in danger of not meeting the commitments to the customer.</t>
   </si>
   <si>
@@ -609,6 +582,51 @@
   </si>
   <si>
     <t>E025</t>
+  </si>
+  <si>
+    <t>What would your boss say about you?</t>
+  </si>
+  <si>
+    <t>B007</t>
+  </si>
+  <si>
+    <t>If selected, what will you achieve in the first 30 days here?</t>
+  </si>
+  <si>
+    <t>B008</t>
+  </si>
+  <si>
+    <t>What is your ideal work environment?</t>
+  </si>
+  <si>
+    <t>What extracurricular activities or hobbies are you participating in?</t>
+  </si>
+  <si>
+    <t>What do you know about our firm?</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>A006</t>
+  </si>
+  <si>
+    <t>Tell us a time you persuaded someone to change an opinion.</t>
+  </si>
+  <si>
+    <t>C022</t>
+  </si>
+  <si>
+    <t>Tell us a time when you had to manage multiple priorities.</t>
+  </si>
+  <si>
+    <t>B009</t>
+  </si>
+  <si>
+    <t>Generally speaking, what motivates you to do things?</t>
+  </si>
+  <si>
+    <t>What made you choose your degree and university?</t>
   </si>
 </sst>
 </file>
@@ -1459,10 +1477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1561,7 +1579,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1578,13 +1596,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>188</v>
       </c>
       <c r="D7">
         <v>10</v>
@@ -1595,13 +1613,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -1612,13 +1630,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>189</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -1629,13 +1647,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -1646,13 +1664,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -1666,7 +1684,7 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1683,7 +1701,7 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1697,30 +1715,30 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="D14">
         <v>10</v>
       </c>
       <c r="E14">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>10</v>
@@ -1731,13 +1749,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -1748,13 +1766,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>153</v>
+        <v>185</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -1765,47 +1783,47 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>186</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>187</v>
       </c>
       <c r="D18">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>195</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E19">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20">
         <v>15</v>
@@ -1816,13 +1834,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D21">
         <v>15</v>
@@ -1833,13 +1851,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D22">
         <v>15</v>
@@ -1850,13 +1868,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D23">
         <v>15</v>
@@ -1867,13 +1885,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>15</v>
@@ -1884,13 +1902,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="D25">
         <v>15</v>
@@ -1901,13 +1919,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>15</v>
@@ -1918,13 +1936,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D27">
         <v>15</v>
@@ -1935,13 +1953,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D28">
         <v>15</v>
@@ -1952,13 +1970,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D29">
         <v>15</v>
@@ -1969,13 +1987,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="D30">
         <v>15</v>
@@ -1986,13 +2004,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D31">
         <v>15</v>
@@ -2003,13 +2021,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D32">
         <v>15</v>
@@ -2020,13 +2038,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>50</v>
       </c>
       <c r="D33">
         <v>15</v>
@@ -2037,13 +2055,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D34">
         <v>15</v>
@@ -2054,13 +2072,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="D35">
         <v>15</v>
@@ -2071,13 +2089,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D36">
         <v>15</v>
@@ -2088,13 +2106,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D37">
         <v>15</v>
@@ -2105,13 +2123,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="D38">
         <v>15</v>
@@ -2122,64 +2140,64 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="D39">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E39">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>139</v>
       </c>
       <c r="B40" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="D40">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E40">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>194</v>
       </c>
       <c r="D41">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E41">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="D42">
         <v>10</v>
@@ -2190,13 +2208,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="D43">
         <v>10</v>
@@ -2207,13 +2225,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D44">
         <v>10</v>
@@ -2224,13 +2242,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D45">
         <v>10</v>
@@ -2241,13 +2259,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B46" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D46">
         <v>10</v>
@@ -2258,13 +2276,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D47">
         <v>10</v>
@@ -2275,13 +2293,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D48">
         <v>10</v>
@@ -2292,13 +2310,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D49">
         <v>10</v>
@@ -2309,13 +2327,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B50" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D50">
         <v>10</v>
@@ -2326,13 +2344,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D51">
         <v>10</v>
@@ -2343,13 +2361,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D52">
         <v>10</v>
@@ -2360,13 +2378,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B53" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D53">
         <v>10</v>
@@ -2377,13 +2395,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D54">
         <v>10</v>
@@ -2394,13 +2412,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C55" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D55">
         <v>10</v>
@@ -2411,13 +2429,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D56">
         <v>10</v>
@@ -2428,13 +2446,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B57" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D57">
         <v>10</v>
@@ -2445,13 +2463,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D58">
         <v>10</v>
@@ -2462,13 +2480,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D59">
         <v>10</v>
@@ -2479,13 +2497,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D60">
         <v>10</v>
@@ -2496,13 +2514,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D61">
         <v>10</v>
@@ -2513,13 +2531,13 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D62">
         <v>10</v>
@@ -2530,13 +2548,13 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="B63" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C63" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D63">
         <v>10</v>
@@ -2547,13 +2565,13 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D64">
         <v>10</v>
@@ -2564,13 +2582,13 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B65" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C65" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D65">
         <v>10</v>
@@ -2581,13 +2599,13 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C66" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D66">
         <v>10</v>
@@ -2598,13 +2616,13 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="B67" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="D67">
         <v>10</v>
@@ -2615,64 +2633,64 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="B68" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="D68">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E68">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B69" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="D69">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E69">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>54</v>
       </c>
       <c r="C70" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D70">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E70">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" t="s">
         <v>134</v>
-      </c>
-      <c r="B71" t="s">
-        <v>139</v>
-      </c>
-      <c r="C71" t="s">
-        <v>143</v>
       </c>
       <c r="D71">
         <v>20</v>
@@ -2683,13 +2701,13 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>126</v>
+      </c>
+      <c r="B72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" t="s">
         <v>135</v>
-      </c>
-      <c r="B72" t="s">
-        <v>139</v>
-      </c>
-      <c r="C72" t="s">
-        <v>144</v>
       </c>
       <c r="D72">
         <v>20</v>
@@ -2700,13 +2718,13 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
+        <v>127</v>
+      </c>
+      <c r="B73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" t="s">
         <v>136</v>
-      </c>
-      <c r="B73" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" t="s">
-        <v>147</v>
       </c>
       <c r="D73">
         <v>20</v>
@@ -2717,13 +2735,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
+        <v>128</v>
+      </c>
+      <c r="B74" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" t="s">
         <v>137</v>
-      </c>
-      <c r="B74" t="s">
-        <v>139</v>
-      </c>
-      <c r="C74" t="s">
-        <v>148</v>
       </c>
       <c r="D74">
         <v>20</v>
@@ -2734,13 +2752,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>129</v>
+      </c>
+      <c r="B75" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" t="s">
         <v>138</v>
-      </c>
-      <c r="B75" t="s">
-        <v>139</v>
-      </c>
-      <c r="C75" t="s">
-        <v>149</v>
       </c>
       <c r="D75">
         <v>20</v>
@@ -2751,13 +2769,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>158</v>
+        <v>133</v>
+      </c>
+      <c r="C76" t="s">
+        <v>141</v>
       </c>
       <c r="D76">
         <v>20</v>
@@ -2768,13 +2786,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="B77" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>159</v>
+        <v>133</v>
+      </c>
+      <c r="C77" t="s">
+        <v>142</v>
       </c>
       <c r="D77">
         <v>20</v>
@@ -2785,13 +2803,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="B78" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>160</v>
+        <v>133</v>
+      </c>
+      <c r="C78" t="s">
+        <v>143</v>
       </c>
       <c r="D78">
         <v>20</v>
@@ -2802,16 +2820,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D79">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E79">
         <v>90</v>
@@ -2819,16 +2837,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="D80">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E80">
         <v>90</v>
@@ -2836,13 +2854,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B81" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D81">
         <v>20</v>
@@ -2853,13 +2871,13 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B82" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D82">
         <v>20</v>
@@ -2870,16 +2888,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B83" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="D83">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E83">
         <v>90</v>
@@ -2887,16 +2905,16 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="D84">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E84">
         <v>90</v>
@@ -2904,13 +2922,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B85" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="D85">
         <v>20</v>
@@ -2921,16 +2939,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
-      </c>
-      <c r="C86" t="s">
-        <v>178</v>
+        <v>133</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="D86">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E86">
         <v>90</v>
@@ -2938,16 +2956,16 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="B87" t="s">
-        <v>139</v>
-      </c>
-      <c r="C87" t="s">
-        <v>179</v>
+        <v>133</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E87">
         <v>90</v>
@@ -2955,13 +2973,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B88" t="s">
-        <v>139</v>
-      </c>
-      <c r="C88" t="s">
-        <v>180</v>
+        <v>133</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>158</v>
       </c>
       <c r="D88">
         <v>20</v>
@@ -2972,13 +2990,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C89" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D89">
         <v>20</v>
@@ -2989,13 +3007,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B90" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C90" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="D90">
         <v>20</v>
@@ -3006,16 +3024,16 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C91" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D91">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E91">
         <v>90</v>
@@ -3023,25 +3041,76 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B92" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="D92">
+        <v>25</v>
+      </c>
+      <c r="E92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>180</v>
+      </c>
+      <c r="B93" t="s">
+        <v>133</v>
+      </c>
+      <c r="C93" t="s">
+        <v>173</v>
+      </c>
+      <c r="D93">
+        <v>25</v>
+      </c>
+      <c r="E93">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>181</v>
+      </c>
+      <c r="B94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C94" t="s">
+        <v>174</v>
+      </c>
+      <c r="D94">
         <v>20</v>
       </c>
-      <c r="E92">
+      <c r="E94">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" t="s">
+        <v>133</v>
+      </c>
+      <c r="C95" t="s">
+        <v>175</v>
+      </c>
+      <c r="D95">
+        <v>25</v>
+      </c>
+      <c r="E95">
         <v>90</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E66" xr:uid="{75DC1275-236E-4E5B-BB75-41F1DECCC02E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E66">
-      <sortCondition ref="A1:A66"/>
+  <autoFilter ref="A1:E69" xr:uid="{75DC1275-236E-4E5B-BB75-41F1DECCC02E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E69">
+      <sortCondition ref="A1:A69"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="18" type="noConversion"/>
